--- a/uploads/Data.xlsx
+++ b/uploads/Data.xlsx
@@ -24,51 +24,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Dob</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>abc@123</t>
+  </si>
+  <si>
+    <t>abc@432</t>
+  </si>
+  <si>
+    <t>fds@345</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Dob</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>abc@123</t>
-  </si>
-  <si>
-    <t>abc@432</t>
-  </si>
-  <si>
-    <t>fds@345</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +98,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -115,7 +106,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -397,107 +387,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A40:F47"/>
+  <dimension ref="A40:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="B59" sqref="B59:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
         <v>0</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="4" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4">
+        <v>33816</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4">
+        <v>33847</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F40" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="4">
+        <v>33450</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4">
+        <v>33816</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4">
+        <v>33847</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4">
+        <v>33450</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4">
         <v>33816</v>
       </c>
-      <c r="E41">
+      <c r="D47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4">
+        <v>33847</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="1" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>28</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="C49" s="4">
+        <v>33450</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4">
+        <v>33816</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="4">
         <v>33847</v>
       </c>
-      <c r="E42">
+      <c r="D51" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="4">
+        <v>33450</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>345</v>
+      </c>
+      <c r="B53" t="s">
         <v>7</v>
       </c>
-      <c r="C43">
+      <c r="C53" s="4">
+        <v>33816</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="4">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>656</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="4">
+        <v>33847</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>876</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="4">
         <v>33450</v>
       </c>
-      <c r="E43">
+      <c r="D55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E47" s="5"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4">
+        <v>33816</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4">
+        <v>33847</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="4">
+        <v>33450</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F41" r:id="rId1"/>
-    <hyperlink ref="F42" r:id="rId2"/>
-    <hyperlink ref="F43" r:id="rId3"/>
+    <hyperlink ref="D41" r:id="rId1"/>
+    <hyperlink ref="D42" r:id="rId2"/>
+    <hyperlink ref="D43" r:id="rId3"/>
+    <hyperlink ref="D44" r:id="rId4"/>
+    <hyperlink ref="D45" r:id="rId5"/>
+    <hyperlink ref="D46" r:id="rId6"/>
+    <hyperlink ref="D47" r:id="rId7"/>
+    <hyperlink ref="D48" r:id="rId8"/>
+    <hyperlink ref="D49" r:id="rId9"/>
+    <hyperlink ref="D50" r:id="rId10"/>
+    <hyperlink ref="D51" r:id="rId11"/>
+    <hyperlink ref="D52" r:id="rId12"/>
+    <hyperlink ref="D53" r:id="rId13"/>
+    <hyperlink ref="D54" r:id="rId14"/>
+    <hyperlink ref="D55" r:id="rId15"/>
+    <hyperlink ref="D56" r:id="rId16"/>
+    <hyperlink ref="D57" r:id="rId17"/>
+    <hyperlink ref="D58" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>